--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/42.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/42.xlsx
@@ -479,13 +479,13 @@
         <v>0.06667423595629274</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.825109685428656</v>
+        <v>-1.80312693438057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03889491363706087</v>
+        <v>0.04175018432310032</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.070881901939813</v>
+        <v>-0.07693085742297154</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04802928832361237</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.85174995905667</v>
+        <v>-1.841662857517815</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01159197795897914</v>
+        <v>0.01819341415371423</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06333605427229751</v>
+        <v>-0.06275209317829494</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.01576974406476576</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.951497911802176</v>
+        <v>-1.94223244824464</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01117148657327141</v>
+        <v>-0.01612335072888337</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0560074212435215</v>
+        <v>-0.06400973445621419</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03332822960524521</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.010519693803149</v>
+        <v>-1.990121980010213</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03388615651276163</v>
+        <v>-0.0365572669616089</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0551118043635014</v>
+        <v>-0.06062874138366032</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1021486703919499</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.986552104643104</v>
+        <v>-1.952770506261748</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02641271372482597</v>
+        <v>-0.02263349381458301</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06499034836878452</v>
+        <v>-0.07553312844325653</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1880623105857954</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.867790787921845</v>
+        <v>-1.827658809395602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01433864132564884</v>
+        <v>0.01839016654387681</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06512099195585248</v>
+        <v>-0.06786608130340088</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2834933907016617</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.609616236598303</v>
+        <v>-1.560572161807256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05646254104989785</v>
+        <v>0.05647670722198955</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06307161905991898</v>
+        <v>-0.06410102756524963</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3748031044500011</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.222576739813874</v>
+        <v>-1.160369143111389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05905180250443748</v>
+        <v>0.0520143630131021</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05008596130918831</v>
+        <v>-0.04957755313300819</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4447609783554716</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.72045913105203</v>
+        <v>-0.6555827849293795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05664197922972613</v>
+        <v>0.04691454106008788</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0159675228358746</v>
+        <v>-0.01953110212649936</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.473039460009483</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.21091608708545</v>
+        <v>-0.1477255154417126</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03520046247904771</v>
+        <v>-0.04732985382779081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02314055625196229</v>
+        <v>0.01918032414276976</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.4452742352233606</v>
       </c>
       <c r="E12" t="n">
-        <v>0.368327671610567</v>
+        <v>0.4360986388972894</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2278021642187638</v>
+        <v>-0.2302875404112976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08671991061866097</v>
+        <v>0.08053401547194927</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3577843378097685</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9361487735433049</v>
+        <v>1.014034387703506</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5268484830555601</v>
+        <v>-0.5165827303464371</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1798026793950197</v>
+        <v>0.1720648013947056</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2210405588791314</v>
       </c>
       <c r="E14" t="n">
-        <v>1.513928694456512</v>
+        <v>1.600655574021059</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8467426851539841</v>
+        <v>-0.8293434777871264</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2972386720161427</v>
+        <v>0.2794648480984154</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.05470608131455611</v>
       </c>
       <c r="E15" t="n">
-        <v>2.174771178419878</v>
+        <v>2.278919301618981</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.18741708769182</v>
+        <v>-1.16755847544793</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4163730312691492</v>
+        <v>0.4009303296700681</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1153864003294966</v>
       </c>
       <c r="E16" t="n">
-        <v>2.700927994211787</v>
+        <v>2.81801298056886</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.537604074789236</v>
+        <v>-1.516982850281076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5343363202959079</v>
+        <v>0.526123088520961</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2713136535754634</v>
       </c>
       <c r="E17" t="n">
-        <v>3.198823296680742</v>
+        <v>3.31626558537835</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.878928547224169</v>
+        <v>-1.858259315132809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6669678935140678</v>
+        <v>0.6494191543306864</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4143905605311389</v>
       </c>
       <c r="E18" t="n">
-        <v>3.626308001796553</v>
+        <v>3.731919962778465</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.206691270909975</v>
+        <v>-2.172845137744646</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8142882131722057</v>
+        <v>0.8022957614870158</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5504586539141648</v>
       </c>
       <c r="E19" t="n">
-        <v>3.984702711601992</v>
+        <v>4.08201959181465</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.568585812231626</v>
+        <v>-2.528515220451114</v>
       </c>
       <c r="G19" t="n">
-        <v>0.95940175802228</v>
+        <v>0.9462854566844814</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6792723078176742</v>
       </c>
       <c r="E20" t="n">
-        <v>4.289651602143666</v>
+        <v>4.392172189571344</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.904188725160631</v>
+        <v>-2.853863398804845</v>
       </c>
       <c r="G20" t="n">
-        <v>1.09277154620833</v>
+        <v>1.070527507986109</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7921038709201044</v>
       </c>
       <c r="E21" t="n">
-        <v>4.530737814876807</v>
+        <v>4.614984040306184</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.185235348335793</v>
+        <v>-3.128713895709007</v>
       </c>
       <c r="G21" t="n">
-        <v>1.210741131311574</v>
+        <v>1.181481689865715</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8804615671258441</v>
       </c>
       <c r="E22" t="n">
-        <v>4.699474238699362</v>
+        <v>4.783004285428547</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.421066698232472</v>
+        <v>-3.350507356072365</v>
       </c>
       <c r="G22" t="n">
-        <v>1.306750001634431</v>
+        <v>1.26927103233714</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9400174709504959</v>
       </c>
       <c r="E23" t="n">
-        <v>4.817393455190724</v>
+        <v>4.896829478185406</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.56104185766106</v>
+        <v>-3.490403814544889</v>
       </c>
       <c r="G23" t="n">
-        <v>1.389080645793184</v>
+        <v>1.347627278214609</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9752768358868675</v>
       </c>
       <c r="E24" t="n">
-        <v>4.886662888680925</v>
+        <v>4.966470380188234</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.680941190207019</v>
+        <v>-3.607062241720089</v>
       </c>
       <c r="G24" t="n">
-        <v>1.4535036744089</v>
+        <v>1.409741220779377</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9922119286106764</v>
       </c>
       <c r="E25" t="n">
-        <v>4.891868169915067</v>
+        <v>4.962850136209243</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.781739013706433</v>
+        <v>-3.708474719686371</v>
       </c>
       <c r="G25" t="n">
-        <v>1.493213028801074</v>
+        <v>1.449060218429468</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9952748203912282</v>
       </c>
       <c r="E26" t="n">
-        <v>4.891691879773481</v>
+        <v>4.953923873772346</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.795215765423009</v>
+        <v>-3.725671665596142</v>
       </c>
       <c r="G26" t="n">
-        <v>1.522489784457267</v>
+        <v>1.474918204554196</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.988337462005069</v>
       </c>
       <c r="E27" t="n">
-        <v>4.863011677364261</v>
+        <v>4.914864589277269</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.733757401822263</v>
+        <v>-3.676517409466603</v>
       </c>
       <c r="G27" t="n">
-        <v>1.515721502235674</v>
+        <v>1.470141056521048</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.976667360372922</v>
       </c>
       <c r="E28" t="n">
-        <v>4.713972528825662</v>
+        <v>4.764514282810627</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.658262722707319</v>
+        <v>-3.606039129291243</v>
       </c>
       <c r="G28" t="n">
-        <v>1.472605970465005</v>
+        <v>1.423683882155859</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9660853966526627</v>
       </c>
       <c r="E29" t="n">
-        <v>4.591666521043235</v>
+        <v>4.637555474505636</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.566194409254638</v>
+        <v>-3.516209858038613</v>
       </c>
       <c r="G29" t="n">
-        <v>1.42433867411032</v>
+        <v>1.378444998590556</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9599982733013036</v>
       </c>
       <c r="E30" t="n">
-        <v>4.455063697582034</v>
+        <v>4.489276577202626</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.453464733806204</v>
+        <v>-3.391615226453815</v>
       </c>
       <c r="G30" t="n">
-        <v>1.370123159496239</v>
+        <v>1.32550601348385</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9592655487818142</v>
       </c>
       <c r="E31" t="n">
-        <v>4.307510423093944</v>
+        <v>4.335742030053592</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.335717872408624</v>
+        <v>-3.270915505184675</v>
       </c>
       <c r="G31" t="n">
-        <v>1.292464204089506</v>
+        <v>1.257798006961979</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9623293940711004</v>
       </c>
       <c r="E32" t="n">
-        <v>4.163487673494931</v>
+        <v>4.196968634224118</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.201611443273805</v>
+        <v>-3.132984996594656</v>
       </c>
       <c r="G32" t="n">
-        <v>1.226714277354533</v>
+        <v>1.188928374328589</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9661399946677629</v>
       </c>
       <c r="E33" t="n">
-        <v>3.962606631177173</v>
+        <v>3.993133158015678</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.088554371848141</v>
+        <v>-3.011451832200787</v>
       </c>
       <c r="G33" t="n">
-        <v>1.153319339747404</v>
+        <v>1.118457964248836</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.966472174081766</v>
       </c>
       <c r="E34" t="n">
-        <v>3.703568730365597</v>
+        <v>3.736783681863284</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.006122990465624</v>
+        <v>-2.932386490709172</v>
       </c>
       <c r="G34" t="n">
-        <v>1.092949410369037</v>
+        <v>1.059268549211445</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9587067829671454</v>
       </c>
       <c r="E35" t="n">
-        <v>3.463102681166248</v>
+        <v>3.49591153573064</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.924117381255419</v>
+        <v>-2.842075569605424</v>
       </c>
       <c r="G35" t="n">
-        <v>1.004845264073352</v>
+        <v>0.9646999063845781</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9405946778567783</v>
       </c>
       <c r="E36" t="n">
-        <v>3.213590744076785</v>
+        <v>3.238076185527738</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.844594000199505</v>
+        <v>-2.774696533079905</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9310395074755629</v>
+        <v>0.89244455862127</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9108754713961528</v>
       </c>
       <c r="E37" t="n">
-        <v>2.958506779297917</v>
+        <v>2.989485049624236</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.744543835782709</v>
+        <v>-2.676179463287256</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8685651145320173</v>
+        <v>0.8380212734831775</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8708037775477702</v>
       </c>
       <c r="E38" t="n">
-        <v>2.684427551763192</v>
+        <v>2.704209824079699</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.644754958540048</v>
+        <v>-2.586326581747806</v>
       </c>
       <c r="G38" t="n">
-        <v>0.805511482551833</v>
+        <v>0.7717597905337824</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8227124694584838</v>
       </c>
       <c r="E39" t="n">
-        <v>2.433340021533306</v>
+        <v>2.449465847431032</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.541533145593831</v>
+        <v>-2.473729123905561</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7358753026063694</v>
+        <v>0.7022290698694458</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7696457422944237</v>
       </c>
       <c r="E40" t="n">
-        <v>2.200501668995781</v>
+        <v>2.214436460276656</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.449787506061017</v>
+        <v>-2.377862702313182</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6748316930440861</v>
+        <v>0.6485707580243054</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7143391105613885</v>
       </c>
       <c r="E41" t="n">
-        <v>1.997780598325222</v>
+        <v>2.013286260689156</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.349305273395424</v>
+        <v>-2.282118267202704</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6090140834868978</v>
+        <v>0.5837384844370513</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6599004086094157</v>
       </c>
       <c r="E42" t="n">
-        <v>1.757901658258119</v>
+        <v>1.761372370420587</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.249317282733919</v>
+        <v>-2.184138724939979</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5365462431422141</v>
+        <v>0.5136190806213483</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6078449946097122</v>
       </c>
       <c r="E43" t="n">
-        <v>1.540636650906742</v>
+        <v>1.544378094358074</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.168621257432636</v>
+        <v>-2.102565183978571</v>
       </c>
       <c r="G43" t="n">
-        <v>0.48187898504032</v>
+        <v>0.4601165966692166</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5595892756819995</v>
       </c>
       <c r="E44" t="n">
-        <v>1.320820158559737</v>
+        <v>1.314867218242978</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.079913474803933</v>
+        <v>-2.013958925583191</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4245752449102471</v>
+        <v>0.4120964213165753</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5151669341768152</v>
       </c>
       <c r="E45" t="n">
-        <v>1.108444054599121</v>
+        <v>1.104176888761275</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.997528526985494</v>
+        <v>-1.934982516171929</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3630515595159671</v>
+        <v>0.352869229820273</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4742957246285352</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9132908678637763</v>
+        <v>0.9047014455188385</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.929765429794378</v>
+        <v>-1.868004854522342</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2953199427072772</v>
+        <v>0.2837351619745042</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4362504345969071</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7561470948696009</v>
+        <v>0.7441829755285944</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.875348440732771</v>
+        <v>-1.819975235054973</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2527442994952149</v>
+        <v>0.2453904821604981</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4004096409461571</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5932943545224678</v>
+        <v>0.5835747864484361</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.812324715115891</v>
+        <v>-1.753518573734537</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2033232471246159</v>
+        <v>0.2007465778230467</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3654074504072297</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4692065570947281</v>
+        <v>0.45603044303032</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.762853294133411</v>
+        <v>-1.705285118790959</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1569290335242781</v>
+        <v>0.1470992841117554</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3308411036459745</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3568200178147377</v>
+        <v>0.3556867240474012</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.706211429043845</v>
+        <v>-1.642476246784137</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1172039389408914</v>
+        <v>0.1137174865872104</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2963007213968062</v>
       </c>
       <c r="E51" t="n">
-        <v>0.229178085211101</v>
+        <v>0.2248762909525862</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.648278081265251</v>
+        <v>-1.591236415318875</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08120297359850207</v>
+        <v>0.07667609460564127</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.262150686796167</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1218598875016988</v>
+        <v>0.1180680754384855</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.610470141971609</v>
+        <v>-1.547141056645197</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04797700396696584</v>
+        <v>0.04626289714386939</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2299644064778283</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03767190077981024</v>
+        <v>0.02645701454054284</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.581945767455398</v>
+        <v>-1.528930442421309</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008185800580484452</v>
+        <v>0.006937603417293007</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2001133747984376</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.05110277766154855</v>
+        <v>-0.06550977467881375</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.565450047064167</v>
+        <v>-1.51113064718808</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01133675858100798</v>
+        <v>-0.01393074209291151</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1739627531904502</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1237343159948475</v>
+        <v>-0.1375400377077758</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.55464755383468</v>
+        <v>-1.498022215945888</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04088581954518579</v>
+        <v>-0.04369229563846492</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1509863661486048</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1851588381844855</v>
+        <v>-0.2069983534925326</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.559056381393443</v>
+        <v>-1.503738266384891</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07460445716168912</v>
+        <v>-0.07446122142165076</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1310420817016016</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2442711262849329</v>
+        <v>-0.2620559683365093</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.557538239950949</v>
+        <v>-1.500017285182136</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09821316996207814</v>
+        <v>-0.1087575240556714</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1133080744546007</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3234175297612953</v>
+        <v>-0.3468845808407673</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.556521423598588</v>
+        <v>-1.499239719736214</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1212127373625238</v>
+        <v>-0.128673587997489</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.0967046247197374</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3949960493024441</v>
+        <v>-0.4213073529341064</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.570615190810715</v>
+        <v>-1.519693311207956</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.14582252632406</v>
+        <v>-0.1521500831916888</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08073441874537016</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4727777782006389</v>
+        <v>-0.4887115737655658</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.583396226075676</v>
+        <v>-1.534543394607867</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1732608276465736</v>
+        <v>-0.1851556901462429</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06495293123529121</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5417560181533989</v>
+        <v>-0.5610188641598768</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.609367541577138</v>
+        <v>-1.563774503709542</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1969923139384241</v>
+        <v>-0.2071352931560857</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.04921244238823737</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5950098070843651</v>
+        <v>-0.6160969412524304</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.644512240517539</v>
+        <v>-1.591771581820117</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2124019611359578</v>
+        <v>-0.2195070834495091</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.03337201476407053</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6452052768626441</v>
+        <v>-0.6687006602862994</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.686806134306889</v>
+        <v>-1.636938847515401</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.243847715141303</v>
+        <v>-0.2531785004923734</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.01751168649320929</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6979380654644597</v>
+        <v>-0.7249639737771925</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.725182294503321</v>
+        <v>-1.678872290925973</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2691280362485133</v>
+        <v>-0.274062586193791</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.001387578525509535</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7671429641706871</v>
+        <v>-0.8015179677607728</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.770026099269178</v>
+        <v>-1.723478418804513</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2890897467448487</v>
+        <v>-0.3015040355545472</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01475859812463847</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8289342328155881</v>
+        <v>-0.8775785067498253</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.809098762926785</v>
+        <v>-1.762510157964967</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3134681548955537</v>
+        <v>-0.3211682564369567</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.03192845164829305</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.8826358301865643</v>
+        <v>-0.9302451865485463</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.843271505059784</v>
+        <v>-1.792218194860396</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3355122926893698</v>
+        <v>-0.3449642775127805</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.05030336740095726</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9080475818904034</v>
+        <v>-0.9731175323649738</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.87919613047479</v>
+        <v>-1.825329261096077</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3566797018326215</v>
+        <v>-0.3700541423063134</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.06991138141788844</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9244952946984348</v>
+        <v>-0.9965420849281705</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.928552648061416</v>
+        <v>-1.86212117104692</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3767311314188709</v>
+        <v>-0.3884811841593806</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.08915932043813084</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9222523174505813</v>
+        <v>-0.9940622178025613</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.956161730458591</v>
+        <v>-1.894343703488627</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3937147977377053</v>
+        <v>-0.4125904350403432</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1062888165594583</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9378429768470646</v>
+        <v>-0.9978280585502732</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.98371650919608</v>
+        <v>-1.919879015693488</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4026001356774477</v>
+        <v>-0.4221415830683958</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1200008742982582</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9307921581931983</v>
+        <v>-1.001244467053056</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.024893636418867</v>
+        <v>-1.963502955640337</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.408438172598352</v>
+        <v>-0.4270714109563095</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1302772668453712</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8900053877124942</v>
+        <v>-0.9648618020737516</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.055050268763867</v>
+        <v>-1.983608688886271</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4213010568576212</v>
+        <v>-0.4394337571350052</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1380535587323782</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8417121200423071</v>
+        <v>-0.9112050642477325</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.088697288510351</v>
+        <v>-2.022412982283697</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4171220360905679</v>
+        <v>-0.4403356700915104</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1444032917937273</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7809235015776745</v>
+        <v>-0.8525704909505999</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.117199626758864</v>
+        <v>-2.047380860595329</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4249197268174915</v>
+        <v>-0.4469622905921863</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1499177809201863</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6941494014394889</v>
+        <v>-0.7623894264243589</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.139940268013856</v>
+        <v>-2.080417160922749</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4195035270210958</v>
+        <v>-0.4384547172415561</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1550912472131065</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5925669294081064</v>
+        <v>-0.668703808324542</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.127836847980614</v>
+        <v>-2.075569969038703</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4087576984799761</v>
+        <v>-0.4236668075969361</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1600032952386495</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4830073284699721</v>
+        <v>-0.5568540095649152</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.125350684778519</v>
+        <v>-2.081290741535071</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4008151979938928</v>
+        <v>-0.4156503282121518</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1645112096531067</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3264742748948613</v>
+        <v>-0.3992883994462311</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.104401277283568</v>
+        <v>-2.065094084776887</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3768822372545158</v>
+        <v>-0.3903290826077876</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.168266983509917</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1823523620912064</v>
+        <v>-0.2600034474023332</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.071204427005776</v>
+        <v>-2.032016859952313</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3560973147577402</v>
+        <v>-0.3710520704292181</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1709817920207541</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01438113984192396</v>
+        <v>-0.05880917527943672</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.042148821036126</v>
+        <v>-1.997394735360183</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3268473174266096</v>
+        <v>-0.3450272382776325</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1728933159408422</v>
       </c>
       <c r="E82" t="n">
-        <v>0.181830016023255</v>
+        <v>0.1138339640021866</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.000043022531772</v>
+        <v>-1.953940002468875</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2988565353925194</v>
+        <v>-0.3261295647072964</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1731917926527677</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3934348506144343</v>
+        <v>0.3193646588042665</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.937903895661063</v>
+        <v>-1.896700797122775</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2648199459135133</v>
+        <v>-0.2862502162500222</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1715598942175796</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5914732143991229</v>
+        <v>0.532357778260433</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.850947996314367</v>
+        <v>-1.816406933706984</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2293022044413633</v>
+        <v>-0.2566271763871433</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1683403147464958</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7683473170788025</v>
+        <v>0.7163181150242083</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.734079437586473</v>
+        <v>-1.700764535874584</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1988166021000116</v>
+        <v>-0.2320268315403348</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1641772988320732</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9874680929741926</v>
+        <v>0.9298164946183123</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.636118783553204</v>
+        <v>-1.611359462775144</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.16530573500752</v>
+        <v>-0.1981586621073079</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.16054844586356</v>
       </c>
       <c r="E87" t="n">
-        <v>1.191149315308744</v>
+        <v>1.142128063794956</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.505432697968971</v>
+        <v>-1.492217233426531</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1330745454606458</v>
+        <v>-0.1590253987135302</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1584623828394057</v>
       </c>
       <c r="E88" t="n">
-        <v>1.351884999937728</v>
+        <v>1.313020893813692</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.355961481181576</v>
+        <v>-1.336000557694802</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1026345896738118</v>
+        <v>-0.1328148323056312</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1589839205911368</v>
       </c>
       <c r="E89" t="n">
-        <v>1.480494954300964</v>
+        <v>1.446889646061195</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.175637128588005</v>
+        <v>-1.154310743513502</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07518999227481298</v>
+        <v>-0.1051372800766799</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1628102919147056</v>
       </c>
       <c r="E90" t="n">
-        <v>1.593304904724585</v>
+        <v>1.562507646597215</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9880203454054487</v>
+        <v>-0.9691777625043582</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0541768370054488</v>
+        <v>-0.07968066882788384</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1696252927323417</v>
       </c>
       <c r="E91" t="n">
-        <v>1.676513851553024</v>
+        <v>1.637585210645016</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7889777574213702</v>
+        <v>-0.7747738088707528</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.05630648487656863</v>
+        <v>-0.08317656529629266</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1793340122643895</v>
       </c>
       <c r="E92" t="n">
-        <v>1.72530214823686</v>
+        <v>1.70097725673628</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5755281724200265</v>
+        <v>-0.5721676415960495</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05171034904237062</v>
+        <v>-0.07669790259301904</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1919605402631821</v>
       </c>
       <c r="E93" t="n">
-        <v>1.726761263962306</v>
+        <v>1.710873114951897</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4001430918290974</v>
+        <v>-0.4002674393396801</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0605815208100213</v>
+        <v>-0.08065026460660507</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2067579341146025</v>
       </c>
       <c r="E94" t="n">
-        <v>1.711376801070713</v>
+        <v>1.697887457201166</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2135761794004482</v>
+        <v>-0.2155326851682249</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08660635296160688</v>
+        <v>-0.09888685014599484</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.223687201361658</v>
       </c>
       <c r="E95" t="n">
-        <v>1.676767268631554</v>
+        <v>1.665766448992783</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07691039517439463</v>
+        <v>-0.07397012745580495</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09015576608013992</v>
+        <v>-0.1046760924741388</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2395355612327785</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605265876027349</v>
+        <v>1.60624806395904</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04116937126734037</v>
+        <v>0.03188580648990891</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1090817719946594</v>
+        <v>-0.1164308672720123</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2501293424700926</v>
       </c>
       <c r="E97" t="n">
-        <v>1.501385336078867</v>
+        <v>1.514515803588757</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1050965838598465</v>
+        <v>0.09467342923859334</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1343605190827484</v>
+        <v>-0.1377604003847579</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2507749723081464</v>
       </c>
       <c r="E98" t="n">
-        <v>1.377414016066104</v>
+        <v>1.380763528756231</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1511744196168028</v>
+        <v>0.1434239494635182</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1424084788499589</v>
+        <v>-0.1463325085193615</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2401053363299776</v>
       </c>
       <c r="E99" t="n">
-        <v>1.249465149733813</v>
+        <v>1.253077523617198</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1679975359852646</v>
+        <v>0.1540312643219636</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1587971659409416</v>
+        <v>-0.1610228289784608</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2165306094214831</v>
       </c>
       <c r="E100" t="n">
-        <v>1.123283906874744</v>
+        <v>1.124418774661202</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1905233236301987</v>
+        <v>0.1711046497307122</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1660014514591349</v>
+        <v>-0.168179893923015</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.186224966255393</v>
       </c>
       <c r="E101" t="n">
-        <v>1.00694815361941</v>
+        <v>1.013878559810497</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2001264142892542</v>
+        <v>0.1831207117027216</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1893063785691128</v>
+        <v>-0.1920184135151139</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1475580814448735</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8932221240671926</v>
+        <v>0.8974058668916098</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2042377522340916</v>
+        <v>0.1781294970690771</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1974802598660273</v>
+        <v>-0.1934066983801011</v>
       </c>
     </row>
   </sheetData>
